--- a/CLIMEX/Final_outfls/Analysis/Sumstats_Fit_v_Valid_EI_GI.xlsx
+++ b/CLIMEX/Final_outfls/Analysis/Sumstats_Fit_v_Valid_EI_GI.xlsx
@@ -407,7 +407,7 @@
         <v>45</v>
       </c>
       <c r="E2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F2" t="n">
         <v>5</v>

--- a/CLIMEX/Final_outfls/Analysis/Sumstats_Fit_v_Valid_EI_GI.xlsx
+++ b/CLIMEX/Final_outfls/Analysis/Sumstats_Fit_v_Valid_EI_GI.xlsx
@@ -407,7 +407,7 @@
         <v>45</v>
       </c>
       <c r="E2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F2" t="n">
         <v>5</v>
